--- a/cypress/fixtures/PlanilhaGTReinf_R-2010testes 1.xlsx
+++ b/cypress/fixtures/PlanilhaGTReinf_R-2010testes 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe Mitre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe Mitre\Documents\CypressOpen2.3.2\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DCA6B6-F4CF-4E74-8BB7-90D28CD4D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C9DB9-38E7-4C4A-BEB0-7608F29E764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GT-Reinf" sheetId="1" r:id="rId1"/>
@@ -874,36 +874,36 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="5"/>
-    <col min="4" max="4" width="20.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="24.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="5"/>
+    <col min="4" max="4" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" style="6" customWidth="1"/>
     <col min="15" max="15" width="22" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="5"/>
-    <col min="17" max="17" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="12.6640625" style="5"/>
+    <col min="16" max="16" width="12.7109375" style="5"/>
+    <col min="17" max="17" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="12.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -927,7 +927,7 @@
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:22" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -995,7 +995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="14">
-        <v>45749</v>
+        <v>45779</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>23</v>
@@ -1043,7 +1043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <v>45750</v>
+        <v>45780</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>23</v>
@@ -1089,7 +1089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <v>45751</v>
+        <v>45781</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>26</v>
@@ -1134,7 +1134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1158,7 +1158,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="11"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1182,7 +1182,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="11"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1206,7 +1206,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="11"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1230,7 +1230,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1254,7 +1254,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1278,7 +1278,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1302,7 +1302,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1326,7 +1326,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="11"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1350,7 +1350,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="11"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1374,7 +1374,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="11"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1398,7 +1398,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="11"/>
     </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1422,7 +1422,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="11"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1446,7 +1446,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1470,7 +1470,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="11"/>
     </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1494,7 +1494,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="11"/>
     </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1518,7 +1518,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="11"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1542,7 +1542,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="11"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1566,7 +1566,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="11"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1590,7 +1590,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="11"/>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1614,7 +1614,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="11"/>
     </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1638,7 +1638,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="11"/>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1662,7 +1662,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="11"/>
     </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1686,7 +1686,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="11"/>
     </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1710,7 +1710,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="11"/>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1734,7 +1734,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="11"/>
     </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1758,7 +1758,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="11"/>
     </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1782,7 +1782,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="11"/>
     </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1806,7 +1806,7 @@
       <c r="U33" s="9"/>
       <c r="V33" s="11"/>
     </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1830,7 +1830,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="11"/>
     </row>
-    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1854,7 +1854,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="11"/>
     </row>
-    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1878,7 +1878,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="11"/>
     </row>
-    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1902,7 +1902,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="11"/>
     </row>
-    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1926,7 +1926,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="11"/>
     </row>
-    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1950,7 +1950,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="11"/>
     </row>
-    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1974,7 +1974,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="11"/>
     </row>
-    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1998,7 +1998,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="11"/>
     </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2022,7 +2022,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="11"/>
     </row>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2046,7 +2046,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="11"/>
     </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2070,7 +2070,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="11"/>
     </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2094,7 +2094,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="11"/>
     </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2118,7 +2118,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="11"/>
     </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2142,7 +2142,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="11"/>
     </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2166,7 +2166,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="11"/>
     </row>
-    <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -2190,7 +2190,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="11"/>
     </row>
-    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2214,7 +2214,7 @@
       <c r="U50" s="9"/>
       <c r="V50" s="11"/>
     </row>
-    <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2238,7 +2238,7 @@
       <c r="U51" s="9"/>
       <c r="V51" s="11"/>
     </row>
-    <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2262,7 +2262,7 @@
       <c r="U52" s="9"/>
       <c r="V52" s="11"/>
     </row>
-    <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2286,7 +2286,7 @@
       <c r="U53" s="9"/>
       <c r="V53" s="11"/>
     </row>
-    <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2310,7 +2310,7 @@
       <c r="U54" s="9"/>
       <c r="V54" s="11"/>
     </row>
-    <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2334,7 +2334,7 @@
       <c r="U55" s="9"/>
       <c r="V55" s="11"/>
     </row>
-    <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2358,7 +2358,7 @@
       <c r="U56" s="9"/>
       <c r="V56" s="11"/>
     </row>
-    <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2382,7 +2382,7 @@
       <c r="U57" s="9"/>
       <c r="V57" s="11"/>
     </row>
-    <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2406,7 +2406,7 @@
       <c r="U58" s="9"/>
       <c r="V58" s="11"/>
     </row>
-    <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2430,7 +2430,7 @@
       <c r="U59" s="9"/>
       <c r="V59" s="11"/>
     </row>
-    <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2454,7 +2454,7 @@
       <c r="U60" s="9"/>
       <c r="V60" s="11"/>
     </row>
-    <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2478,7 +2478,7 @@
       <c r="U61" s="9"/>
       <c r="V61" s="11"/>
     </row>
-    <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2502,7 +2502,7 @@
       <c r="U62" s="9"/>
       <c r="V62" s="11"/>
     </row>
-    <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2526,7 +2526,7 @@
       <c r="U63" s="9"/>
       <c r="V63" s="11"/>
     </row>
-    <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2550,7 +2550,7 @@
       <c r="U64" s="9"/>
       <c r="V64" s="11"/>
     </row>
-    <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2574,7 +2574,7 @@
       <c r="U65" s="9"/>
       <c r="V65" s="11"/>
     </row>
-    <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2598,7 +2598,7 @@
       <c r="U66" s="9"/>
       <c r="V66" s="11"/>
     </row>
-    <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2622,7 +2622,7 @@
       <c r="U67" s="9"/>
       <c r="V67" s="11"/>
     </row>
-    <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2646,7 +2646,7 @@
       <c r="U68" s="9"/>
       <c r="V68" s="11"/>
     </row>
-    <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2670,7 +2670,7 @@
       <c r="U69" s="9"/>
       <c r="V69" s="11"/>
     </row>
-    <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2694,7 +2694,7 @@
       <c r="U70" s="9"/>
       <c r="V70" s="11"/>
     </row>
-    <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2718,7 +2718,7 @@
       <c r="U71" s="9"/>
       <c r="V71" s="11"/>
     </row>
-    <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2742,7 +2742,7 @@
       <c r="U72" s="9"/>
       <c r="V72" s="11"/>
     </row>
-    <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2766,7 +2766,7 @@
       <c r="U73" s="9"/>
       <c r="V73" s="11"/>
     </row>
-    <row r="74" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -2790,7 +2790,7 @@
       <c r="U74" s="9"/>
       <c r="V74" s="11"/>
     </row>
-    <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -2814,7 +2814,7 @@
       <c r="U75" s="9"/>
       <c r="V75" s="11"/>
     </row>
-    <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -2838,7 +2838,7 @@
       <c r="U76" s="9"/>
       <c r="V76" s="11"/>
     </row>
-    <row r="77" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -2862,7 +2862,7 @@
       <c r="U77" s="9"/>
       <c r="V77" s="11"/>
     </row>
-    <row r="78" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -2886,7 +2886,7 @@
       <c r="U78" s="9"/>
       <c r="V78" s="11"/>
     </row>
-    <row r="79" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -2910,7 +2910,7 @@
       <c r="U79" s="9"/>
       <c r="V79" s="11"/>
     </row>
-    <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -2934,7 +2934,7 @@
       <c r="U80" s="9"/>
       <c r="V80" s="11"/>
     </row>
-    <row r="81" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -2958,7 +2958,7 @@
       <c r="U81" s="9"/>
       <c r="V81" s="11"/>
     </row>
-    <row r="82" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -2982,7 +2982,7 @@
       <c r="U82" s="9"/>
       <c r="V82" s="11"/>
     </row>
-    <row r="83" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -3006,7 +3006,7 @@
       <c r="U83" s="9"/>
       <c r="V83" s="11"/>
     </row>
-    <row r="84" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -3030,7 +3030,7 @@
       <c r="U84" s="9"/>
       <c r="V84" s="11"/>
     </row>
-    <row r="85" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -3054,7 +3054,7 @@
       <c r="U85" s="9"/>
       <c r="V85" s="11"/>
     </row>
-    <row r="86" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -3078,7 +3078,7 @@
       <c r="U86" s="9"/>
       <c r="V86" s="11"/>
     </row>
-    <row r="87" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -3102,7 +3102,7 @@
       <c r="U87" s="9"/>
       <c r="V87" s="11"/>
     </row>
-    <row r="88" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -3126,7 +3126,7 @@
       <c r="U88" s="9"/>
       <c r="V88" s="11"/>
     </row>
-    <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -3150,7 +3150,7 @@
       <c r="U89" s="9"/>
       <c r="V89" s="11"/>
     </row>
-    <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -3174,7 +3174,7 @@
       <c r="U90" s="9"/>
       <c r="V90" s="11"/>
     </row>
-    <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -3198,7 +3198,7 @@
       <c r="U91" s="9"/>
       <c r="V91" s="11"/>
     </row>
-    <row r="92" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -3222,7 +3222,7 @@
       <c r="U92" s="9"/>
       <c r="V92" s="11"/>
     </row>
-    <row r="93" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -3246,7 +3246,7 @@
       <c r="U93" s="9"/>
       <c r="V93" s="11"/>
     </row>
-    <row r="94" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3270,7 +3270,7 @@
       <c r="U94" s="9"/>
       <c r="V94" s="11"/>
     </row>
-    <row r="95" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -3294,7 +3294,7 @@
       <c r="U95" s="9"/>
       <c r="V95" s="11"/>
     </row>
-    <row r="96" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -3318,7 +3318,7 @@
       <c r="U96" s="9"/>
       <c r="V96" s="11"/>
     </row>
-    <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -3342,7 +3342,7 @@
       <c r="U97" s="9"/>
       <c r="V97" s="11"/>
     </row>
-    <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -3366,7 +3366,7 @@
       <c r="U98" s="9"/>
       <c r="V98" s="11"/>
     </row>
-    <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -3390,7 +3390,7 @@
       <c r="U99" s="9"/>
       <c r="V99" s="11"/>
     </row>
-    <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -3414,7 +3414,7 @@
       <c r="U100" s="9"/>
       <c r="V100" s="11"/>
     </row>
-    <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -3438,7 +3438,7 @@
       <c r="U101" s="9"/>
       <c r="V101" s="11"/>
     </row>
-    <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -3462,7 +3462,7 @@
       <c r="U102" s="9"/>
       <c r="V102" s="11"/>
     </row>
-    <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -3486,7 +3486,7 @@
       <c r="U103" s="9"/>
       <c r="V103" s="11"/>
     </row>
-    <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -3510,7 +3510,7 @@
       <c r="U104" s="9"/>
       <c r="V104" s="11"/>
     </row>
-    <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -3534,7 +3534,7 @@
       <c r="U105" s="9"/>
       <c r="V105" s="11"/>
     </row>
-    <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -3558,7 +3558,7 @@
       <c r="U106" s="9"/>
       <c r="V106" s="11"/>
     </row>
-    <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3582,7 +3582,7 @@
       <c r="U107" s="9"/>
       <c r="V107" s="11"/>
     </row>
-    <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -3606,7 +3606,7 @@
       <c r="U108" s="9"/>
       <c r="V108" s="11"/>
     </row>
-    <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -3630,7 +3630,7 @@
       <c r="U109" s="9"/>
       <c r="V109" s="11"/>
     </row>
-    <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -3654,7 +3654,7 @@
       <c r="U110" s="9"/>
       <c r="V110" s="11"/>
     </row>
-    <row r="111" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -3678,7 +3678,7 @@
       <c r="U111" s="9"/>
       <c r="V111" s="11"/>
     </row>
-    <row r="112" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -3702,7 +3702,7 @@
       <c r="U112" s="9"/>
       <c r="V112" s="11"/>
     </row>
-    <row r="113" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -3726,7 +3726,7 @@
       <c r="U113" s="9"/>
       <c r="V113" s="11"/>
     </row>
-    <row r="114" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -3750,7 +3750,7 @@
       <c r="U114" s="9"/>
       <c r="V114" s="11"/>
     </row>
-    <row r="115" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -3774,7 +3774,7 @@
       <c r="U115" s="9"/>
       <c r="V115" s="11"/>
     </row>
-    <row r="116" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -3798,7 +3798,7 @@
       <c r="U116" s="9"/>
       <c r="V116" s="11"/>
     </row>
-    <row r="117" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -3822,7 +3822,7 @@
       <c r="U117" s="9"/>
       <c r="V117" s="11"/>
     </row>
-    <row r="118" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -3846,7 +3846,7 @@
       <c r="U118" s="9"/>
       <c r="V118" s="11"/>
     </row>
-    <row r="119" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -3870,7 +3870,7 @@
       <c r="U119" s="9"/>
       <c r="V119" s="11"/>
     </row>
-    <row r="120" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -3894,7 +3894,7 @@
       <c r="U120" s="9"/>
       <c r="V120" s="11"/>
     </row>
-    <row r="121" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -3918,7 +3918,7 @@
       <c r="U121" s="9"/>
       <c r="V121" s="11"/>
     </row>
-    <row r="122" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -3942,7 +3942,7 @@
       <c r="U122" s="9"/>
       <c r="V122" s="11"/>
     </row>
-    <row r="123" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -3966,7 +3966,7 @@
       <c r="U123" s="9"/>
       <c r="V123" s="11"/>
     </row>
-    <row r="124" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -3990,7 +3990,7 @@
       <c r="U124" s="9"/>
       <c r="V124" s="11"/>
     </row>
-    <row r="125" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -4014,7 +4014,7 @@
       <c r="U125" s="9"/>
       <c r="V125" s="11"/>
     </row>
-    <row r="126" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -4038,7 +4038,7 @@
       <c r="U126" s="9"/>
       <c r="V126" s="11"/>
     </row>
-    <row r="127" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -4062,7 +4062,7 @@
       <c r="U127" s="9"/>
       <c r="V127" s="11"/>
     </row>
-    <row r="128" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -4086,7 +4086,7 @@
       <c r="U128" s="9"/>
       <c r="V128" s="11"/>
     </row>
-    <row r="129" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -4110,7 +4110,7 @@
       <c r="U129" s="9"/>
       <c r="V129" s="11"/>
     </row>
-    <row r="130" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -4134,7 +4134,7 @@
       <c r="U130" s="9"/>
       <c r="V130" s="11"/>
     </row>
-    <row r="131" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -4158,7 +4158,7 @@
       <c r="U131" s="9"/>
       <c r="V131" s="11"/>
     </row>
-    <row r="132" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -4182,7 +4182,7 @@
       <c r="U132" s="9"/>
       <c r="V132" s="11"/>
     </row>
-    <row r="133" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -4206,7 +4206,7 @@
       <c r="U133" s="9"/>
       <c r="V133" s="11"/>
     </row>
-    <row r="134" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -4230,7 +4230,7 @@
       <c r="U134" s="9"/>
       <c r="V134" s="11"/>
     </row>
-    <row r="135" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -4254,7 +4254,7 @@
       <c r="U135" s="9"/>
       <c r="V135" s="11"/>
     </row>
-    <row r="136" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -4278,7 +4278,7 @@
       <c r="U136" s="9"/>
       <c r="V136" s="11"/>
     </row>
-    <row r="137" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -4302,7 +4302,7 @@
       <c r="U137" s="9"/>
       <c r="V137" s="11"/>
     </row>
-    <row r="138" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -4326,7 +4326,7 @@
       <c r="U138" s="9"/>
       <c r="V138" s="11"/>
     </row>
-    <row r="139" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -4350,7 +4350,7 @@
       <c r="U139" s="9"/>
       <c r="V139" s="11"/>
     </row>
-    <row r="140" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -4374,7 +4374,7 @@
       <c r="U140" s="9"/>
       <c r="V140" s="11"/>
     </row>
-    <row r="141" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -4398,7 +4398,7 @@
       <c r="U141" s="9"/>
       <c r="V141" s="11"/>
     </row>
-    <row r="142" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -4422,7 +4422,7 @@
       <c r="U142" s="9"/>
       <c r="V142" s="11"/>
     </row>
-    <row r="143" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -4446,7 +4446,7 @@
       <c r="U143" s="9"/>
       <c r="V143" s="11"/>
     </row>
-    <row r="144" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -4470,7 +4470,7 @@
       <c r="U144" s="9"/>
       <c r="V144" s="11"/>
     </row>
-    <row r="145" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>

--- a/cypress/fixtures/PlanilhaGTReinf_R-2010testes 1.xlsx
+++ b/cypress/fixtures/PlanilhaGTReinf_R-2010testes 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe Mitre\Documents\CypressOpen2.3.2\cypress\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\TestesCypress\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C9DB9-38E7-4C4A-BEB0-7608F29E764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706F2726-C2EB-4B69-8017-05D0FC3909C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-100" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GT-Reinf" sheetId="1" r:id="rId1"/>
@@ -107,16 +107,10 @@
     <t>1565922024NP8</t>
   </si>
   <si>
-    <t>03506307000157</t>
-  </si>
-  <si>
     <t>1581222024NP197</t>
   </si>
   <si>
     <t>1552212024NP30</t>
-  </si>
-  <si>
-    <t>04287754000125</t>
   </si>
   <si>
     <t>DDF21</t>
@@ -135,6 +129,12 @@
   </si>
   <si>
     <t>sim</t>
+  </si>
+  <si>
+    <t>13.574.594/0001-96</t>
+  </si>
+  <si>
+    <t>40.432.544/0001-47</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1003,13 +1003,13 @@
         <v>2708</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="14">
         <v>45779</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="16">
@@ -1018,7 +1018,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="16"/>
       <c r="J3" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" s="12">
         <v>100000001</v>
@@ -1037,15 +1037,15 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13">
         <v>1982</v>
@@ -1057,7 +1057,7 @@
         <v>45780</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="16">
@@ -1083,15 +1083,15 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12">
         <v>1507</v>
@@ -1103,7 +1103,7 @@
         <v>45781</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="18">
@@ -1128,10 +1128,10 @@
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/cypress/fixtures/PlanilhaGTReinf_R-2010testes 1.xlsx
+++ b/cypress/fixtures/PlanilhaGTReinf_R-2010testes 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe Mitre\Documents\CypressOpen2.3.2\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C9DB9-38E7-4C4A-BEB0-7608F29E764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BD20C5-4478-460D-8BCF-416AA2468F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1006,7 +1006,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="14">
-        <v>45779</v>
+        <v>45810</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>23</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <v>45780</v>
+        <v>45811</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>23</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <v>45781</v>
+        <v>45812</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>26</v>

--- a/cypress/fixtures/PlanilhaGTReinf_R-2010testes 1.xlsx
+++ b/cypress/fixtures/PlanilhaGTReinf_R-2010testes 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe Mitre\Documents\CypressOpen2.3.2\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BD20C5-4478-460D-8BCF-416AA2468F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A332A-B5E4-420D-9254-DB74695FF2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GT-Reinf" sheetId="1" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="14">
-        <v>45810</v>
+        <v>45871</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>23</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <v>45811</v>
+        <v>45872</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>23</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <v>45812</v>
+        <v>45873</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>26</v>
